--- a/sex.xlsx
+++ b/sex.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
-  <si>
-    <t>Males</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>William</t>
-  </si>
-  <si>
-    <t>Females</t>
   </si>
   <si>
     <t>Alice</t>
@@ -129,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -138,12 +132,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,11 +263,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -288,32 +274,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -321,10 +322,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -332,10 +333,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -343,10 +344,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -354,10 +355,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -365,10 +366,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -376,38 +377,13 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -415,11 +391,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -428,51 +402,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -480,21 +469,21 @@
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
         <v>12</v>
@@ -502,63 +491,38 @@
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
         <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
